--- a/src/main/java/scenarios/R82020.xlsx
+++ b/src/main/java/scenarios/R82020.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Parameter" sheetId="2" r:id="rId2"/>
     <sheet name="189633_Ashok" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>QA Clear Session</t>
   </si>
@@ -160,6 +160,48 @@
   </si>
   <si>
     <t>btn_signin</t>
+  </si>
+  <si>
+    <t>Click on Image Process tab</t>
+  </si>
+  <si>
+    <t>header1_lnk_imageprocess</t>
+  </si>
+  <si>
+    <t>Click on the Upload Details link</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='header1_tr_imageprocess']//*[text()='Upload Details']</t>
+  </si>
+  <si>
+    <t>Select DJS-IV from Team Drop Down list</t>
+  </si>
+  <si>
+    <t>//*[@id='ddl_team']//*[text()='DJS-IV']</t>
+  </si>
+  <si>
+    <t>//*[@id='ddl_category']//*[text()='Upload Journals']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Upload Journals from Category </t>
+  </si>
+  <si>
+    <t>Enter Date in the Due. Date field</t>
+  </si>
+  <si>
+    <t>//*[@id='txtduedate']</t>
+  </si>
+  <si>
+    <t>2019/10/01</t>
+  </si>
+  <si>
+    <t>Click on Submit Button</t>
+  </si>
+  <si>
+    <t>//*[@id='btn_submit']</t>
   </si>
 </sst>
 </file>
@@ -400,7 +442,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,7 +536,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1043,17 +1091,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="36.375" style="35" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="38" customWidth="1"/>
     <col min="4" max="4" width="21.625" style="9" customWidth="1"/>
     <col min="5" max="5" width="57.5" style="22" customWidth="1"/>
     <col min="6" max="6" width="26.875" style="22" customWidth="1"/>
@@ -1108,7 +1156,7 @@
       <c r="B2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -1127,7 +1175,7 @@
       <c r="B3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -1146,7 +1194,7 @@
       <c r="B4" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="37" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -1165,7 +1213,7 @@
       <c r="B5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -1184,7 +1232,7 @@
       <c r="B6" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="38" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1202,9 +1250,111 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.5">
+      <c r="A8" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
